--- a/2023/DATA/Day09_OasisSensor.xlsx
+++ b/2023/DATA/Day09_OasisSensor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bao Ngan\Github\advent_of_code\2023\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DA2E4B2-3E99-43CD-ADD1-6924CFD0B7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C322B2-96CF-4A45-BC5E-BEFE89EF475F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CAC566B8-C39E-496C-93B8-B12FA666D54D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="200">
   <si>
     <t>input</t>
   </si>
@@ -630,6 +630,12 @@
   </si>
   <si>
     <t>10 7 4 1 -2 -5 -8 -11 -14 -17 -20 -23 -26 -29 -32 -35 -38 -41 -44 -47 -50</t>
+  </si>
+  <si>
+    <t>-6 -11 -16 -21 -26 -31 -36 -41 -46 -51 -56 -61 -66 -71 -76 -81 -86 -91 -96 -101 -106'</t>
+  </si>
+  <si>
+    <t>-1 -4 -12 -25 -43 -66 -94 -127 -165 -208 -256 -309 -367 -430 -498 -571 -649 -732 -820 -913 -1011'</t>
   </si>
 </sst>
 </file>
@@ -670,9 +676,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -991,8 +1000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3C43FC-E227-4564-80BC-19781302010E}">
   <dimension ref="A1:A201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A201"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1583,9 +1592,8 @@
       </c>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="1">
-        <f>-1 -4 -12 -25 -43 -66 -94 -127 -165 -208 -256 -309 -367 -430 -498 -571 -649 -732 -820 -913 -1011</f>
-        <v>-7301</v>
+      <c r="A118" s="2" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="119" spans="1:1">
@@ -1974,9 +1982,8 @@
       </c>
     </row>
     <row r="196" spans="1:1">
-      <c r="A196" s="1">
-        <f>-6 -11 -16 -21 -26 -31 -36 -41 -46 -51 -56 -61 -66 -71 -76 -81 -86 -91 -96 -101 -106</f>
-        <v>-1176</v>
+      <c r="A196" s="2" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="197" spans="1:1">
